--- a/src/test/resources/datadriven/Onboarding/Login_data.xlsx
+++ b/src/test/resources/datadriven/Onboarding/Login_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macboockprochm3572/Documents/rimac/canalApp-auto-mobile-test-scp/src/test/resources/datadriven/Onboarding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE36F33E-FB5D-7E49-BEA6-6939C41278EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD998CD-F3E1-4F4D-A158-6BC6F6E60F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4280" yWindow="760" windowWidth="25960" windowHeight="18880" activeTab="1" xr2:uid="{01A04042-4CD8-B543-9BD3-9CD3C35333D1}"/>
+    <workbookView xWindow="4280" yWindow="760" windowWidth="25960" windowHeight="18880" xr2:uid="{01A04042-4CD8-B543-9BD3-9CD3C35333D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -37,15 +37,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>numeroUsuario</t>
   </si>
   <si>
     <t>contrasena</t>
-  </si>
-  <si>
-    <t>47927254</t>
   </si>
   <si>
     <t>Rimac2020</t>
@@ -629,46 +626,6 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82AA77F2-0857-FA48-A69B-EB35352C8AD3}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{590629F7-CBA8-9E4D-BA08-A10D723F7D3C}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -690,10 +647,50 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{590629F7-CBA8-9E4D-BA08-A10D723F7D3C}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="G2" s="1"/>
     </row>
